--- a/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 10,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,42</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1007,9 +1007,117 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 4,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,31</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,07</t>
+          <t>0,0; 12,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A07-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,24</t>
+          <t>0,0; 7,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,37</t>
+          <t>0,0; 9,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,09</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,32</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
